--- a/CETC/ExcelFile/newest/faults.xlsx
+++ b/CETC/ExcelFile/newest/faults.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="93">
   <si>
     <t>DeviceNO</t>
   </si>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,46 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -299,6 +255,126 @@
   </si>
   <si>
     <t>故障113-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测数量超限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺陷数量超限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU温度超限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU利用率超限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存利用率超限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>113</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -646,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -679,10 +755,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -693,10 +769,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -707,10 +783,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -721,10 +797,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -735,10 +811,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
@@ -749,10 +825,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>8</v>
@@ -763,10 +839,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>9</v>
@@ -777,13 +853,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -791,13 +867,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -805,13 +881,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -819,13 +895,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -833,13 +909,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -847,13 +923,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
@@ -861,13 +937,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
@@ -875,13 +951,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
@@ -889,13 +965,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
@@ -903,13 +979,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
@@ -917,13 +993,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -931,13 +1007,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
@@ -945,13 +1021,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
@@ -959,13 +1035,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
@@ -973,13 +1049,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
@@ -987,13 +1063,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
@@ -1001,13 +1077,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
@@ -1015,13 +1091,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
@@ -1029,13 +1105,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
@@ -1043,13 +1119,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
@@ -1057,13 +1133,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
@@ -1071,13 +1147,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
@@ -1085,13 +1161,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
@@ -1099,13 +1175,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
@@ -1113,13 +1189,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
@@ -1127,13 +1203,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
@@ -1141,13 +1217,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
@@ -1155,13 +1231,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
@@ -1169,13 +1245,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
@@ -1183,13 +1259,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
@@ -1197,13 +1273,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
@@ -1211,13 +1287,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
@@ -1228,10 +1304,990 @@
         <v>72</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="1" t="s">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>73</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/CETC/ExcelFile/newest/faults.xlsx
+++ b/CETC/ExcelFile/newest/faults.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="99">
   <si>
     <t>DeviceNO</t>
   </si>
@@ -371,6 +371,30 @@
   </si>
   <si>
     <t>104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -722,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D111"/>
+  <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2211,13 +2235,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
@@ -2225,13 +2249,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
@@ -2239,13 +2263,13 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
@@ -2253,13 +2277,13 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
@@ -2267,13 +2291,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
@@ -2281,12 +2305,82 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C112" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D116" s="1" t="s">
         <v>79</v>
       </c>
     </row>

--- a/CETC/ExcelFile/newest/faults.xlsx
+++ b/CETC/ExcelFile/newest/faults.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="98">
   <si>
     <t>DeviceNO</t>
   </si>
@@ -387,10 +387,6 @@
   </si>
   <si>
     <t>102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>103</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -748,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A116"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2280,7 +2276,7 @@
         <v>93</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>78</v>
@@ -2294,7 +2290,7 @@
         <v>93</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>79</v>
